--- a/Hardware_List.xlsx
+++ b/Hardware_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Modle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,25 @@
   </si>
   <si>
     <t>相机连接线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB3.0 相机专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I7-9700K CPU</t>
+  </si>
+  <si>
+    <t>16GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500GB SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 INCH LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,25 +532,25 @@
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="119.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -548,61 +567,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -611,35 +650,35 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -656,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -673,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -690,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,42 +763,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
@@ -776,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -789,58 +828,62 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>

--- a/Hardware_List.xlsx
+++ b/Hardware_List.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
+    <sheet name="摄像头高度" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Modle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +146,30 @@
   </si>
   <si>
     <t>20 INCH LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scratch </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-083</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,6 +289,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2538413" y="552450"/>
+          <a:ext cx="1376362" cy="1743079"/>
+          <a:chOff x="871538" y="647700"/>
+          <a:chExt cx="1376362" cy="1743079"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="等腰三角形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485900" y="1152525"/>
+            <a:ext cx="390525" cy="323850"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1476375" y="647700"/>
+            <a:ext cx="390525" cy="619125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1681163" y="1476375"/>
+            <a:ext cx="4762" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="圆柱形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1490661" y="1633541"/>
+            <a:ext cx="138115" cy="1376362"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,26 +742,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="119.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -567,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -580,7 +791,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -591,7 +802,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -604,7 +815,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -617,7 +828,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -628,7 +839,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -641,7 +852,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -650,35 +861,35 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -695,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -712,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -763,42 +974,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
@@ -815,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -828,7 +1039,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -841,49 +1052,49 @@
       <c r="E29" s="3"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -900,4 +1111,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>605</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>